--- a/pruebaFinal.xlsx
+++ b/pruebaFinal.xlsx
@@ -76,12 +76,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -119,22 +132,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
     </row>

--- a/pruebaFinal.xlsx
+++ b/pruebaFinal.xlsx
@@ -66,8 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -75,8 +77,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14.0"/>
+      <i val="true"/>
+      <color indexed="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,12 +100,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="18"/>
+        <fgColor rgb="C128CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor rgb="C128CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F6CCFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F6CCFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,9 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -123,12 +154,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.16015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.58984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.43359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.02734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="24.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,62 +183,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="0">
+      <c r="A2" t="n" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F2" t="n" s="3">
         <v>36113.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
+      <c r="A3" t="n" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="F3" t="n" s="0">
+      <c r="F3" t="n" s="3">
         <v>35027.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="0">
+      <c r="A4" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F4" t="n" s="0">
+      <c r="F4" t="n" s="3">
         <v>36894.0</v>
       </c>
     </row>
